--- a/biology/Médecine/Triazole/Triazole.xlsx
+++ b/biology/Médecine/Triazole/Triazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les triazoles sont des composés organiques cyclique comportant un cycle à 5 atomes, comportant deux double liaisons et 3 atomes d'azote et donc de formule brute C2H3N3. Elles sont aromatiques et font partie des cycles excédentaires en électrons.
 Selon la position des atomes d'azote, on distingue les 1,2,3-triazoles (appelées V-triazoles) et les 1,2,4-triazoles (appelées S-triazoles).
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1,2,3-triazole
 1,2,4-triazole
